--- a/docs/CHILI-GraFx/applications/comparison/features2023.xlsx
+++ b/docs/CHILI-GraFx/applications/comparison/features2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bram/Documents/GitHub/grafx-documentation/docs/CHILI-GraFx/applications/comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60394063-5C76-1841-AA63-941E176A8672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC360082-DA1A-F44F-AD1C-ED187F5BF6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="500" windowWidth="20480" windowHeight="19520" xr2:uid="{BF9F8A34-DC7E-0549-A389-ADCA54F02979}"/>
+    <workbookView xWindow="11680" yWindow="640" windowWidth="20480" windowHeight="19520" xr2:uid="{BF9F8A34-DC7E-0549-A389-ADCA54F02979}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="191">
   <si>
     <t>Feature</t>
   </si>
@@ -92,9 +92,6 @@
     <t xml:space="preserve">Drop shadows </t>
   </si>
   <si>
-    <t xml:space="preserve">Precise frame positioning </t>
-  </si>
-  <si>
     <t xml:space="preserve">Scaling </t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t xml:space="preserve">Text wrapping around non orthogonal shapes </t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced Typography </t>
-  </si>
-  <si>
     <t xml:space="preserve">Support for TrueType fonts </t>
   </si>
   <si>
@@ -194,12 +188,6 @@
     <t xml:space="preserve">Support for image Conversion Profiles </t>
   </si>
   <si>
-    <t xml:space="preserve">Smart Cropping </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point of Interest cropping </t>
-  </si>
-  <si>
     <t xml:space="preserve">Support for CMYK colors </t>
   </si>
   <si>
@@ -521,9 +509,6 @@
     <t>Define scaling</t>
   </si>
   <si>
-    <t>Define position</t>
-  </si>
-  <si>
     <t>Maintain animation across layouts</t>
   </si>
   <si>
@@ -566,21 +551,9 @@
     <t>Type: List</t>
   </si>
   <si>
-    <t>Type: Table</t>
-  </si>
-  <si>
     <t>Type: Color</t>
   </si>
   <si>
-    <t>Type: Paragraph Style</t>
-  </si>
-  <si>
-    <t>Type: Character Style</t>
-  </si>
-  <si>
-    <t>Type: Font</t>
-  </si>
-  <si>
     <t>Type: Coordinate</t>
   </si>
   <si>
@@ -593,12 +566,6 @@
     <t>Different [blend modes](/GraFx-Studio/concepts/blendmodes/)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ☑️</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ☑️ By end of 2023</t>
-  </si>
-  <si>
     <t>**Text Editing**</t>
   </si>
   <si>
@@ -612,6 +579,36 @@
   </si>
   <si>
     <t>Through connector framework in GraFx Studio</t>
+  </si>
+  <si>
+    <t>GraFx Studio: Combination of hidden fields and Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Cropping </t>
+  </si>
+  <si>
+    <t>Frame Positioning: mm</t>
+  </si>
+  <si>
+    <t>Frame Positioning: inch</t>
+  </si>
+  <si>
+    <t>Frame Positioning: pt</t>
+  </si>
+  <si>
+    <t>Frame Positioning: pixels (px)</t>
+  </si>
+  <si>
+    <t>GraFx Studio: only for Template Designers</t>
+  </si>
+  <si>
+    <t>Position on the canvas</t>
+  </si>
+  <si>
+    <t>❇️</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ❇️ By end of 2023</t>
   </si>
 </sst>
 </file>
@@ -976,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26496501-D774-604E-8805-246C457AC686}">
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="B179" sqref="B179"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,41 +992,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1037,13 +1034,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1054,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1065,13 +1062,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1082,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
@@ -1096,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1</v>
@@ -1110,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
@@ -1124,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -1138,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -1152,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
@@ -1166,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -1177,10 +1174,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -1188,7 +1185,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -1208,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -1219,10 +1216,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -1230,13 +1227,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -1250,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1261,13 +1258,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1278,63 +1275,63 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>136</v>
+        <v>183</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>184</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -1342,13 +1339,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -1356,13 +1353,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -1370,13 +1367,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -1384,13 +1381,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -1398,27 +1395,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -1426,13 +1423,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -1440,13 +1437,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -1454,13 +1451,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -1468,13 +1465,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>1</v>
@@ -1482,13 +1479,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -1496,13 +1493,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1</v>
@@ -1510,13 +1507,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
@@ -1524,13 +1521,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
@@ -1538,13 +1535,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
@@ -1552,13 +1549,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
@@ -1566,10 +1563,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>1</v>
@@ -1577,10 +1577,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1</v>
@@ -1588,10 +1591,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>1</v>
@@ -1599,13 +1605,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
@@ -1613,13 +1619,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
@@ -1627,13 +1633,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1</v>
@@ -1641,13 +1647,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
@@ -1655,13 +1661,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>136</v>
+        <v>40</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1</v>
@@ -1669,13 +1675,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>1</v>
@@ -1683,13 +1689,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>1</v>
@@ -1697,13 +1703,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1</v>
@@ -1711,13 +1717,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
@@ -1725,13 +1731,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>1</v>
@@ -1739,13 +1745,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>185</v>
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>1</v>
@@ -1753,27 +1759,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>1</v>
@@ -1781,41 +1787,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>190</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>185</v>
+        <v>48</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1</v>
@@ -1823,27 +1829,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1</v>
@@ -1851,10 +1857,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>1</v>
@@ -1865,10 +1871,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1</v>
@@ -1879,10 +1885,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1</v>
@@ -1893,10 +1899,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -1907,10 +1913,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
@@ -1921,10 +1927,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1</v>
@@ -1935,10 +1941,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1</v>
@@ -1949,10 +1955,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>1</v>
@@ -1963,10 +1969,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1</v>
@@ -1977,10 +1983,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>1</v>
@@ -1991,10 +1997,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1</v>
@@ -2005,10 +2011,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>124</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1</v>
@@ -2019,13 +2025,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>185</v>
+        <v>120</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1</v>
@@ -2033,13 +2039,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1</v>
@@ -2047,13 +2053,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -2061,13 +2067,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1</v>
@@ -2075,13 +2081,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1</v>
@@ -2089,13 +2095,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>1</v>
@@ -2103,13 +2109,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1</v>
@@ -2117,13 +2123,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>1</v>
@@ -2131,13 +2137,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>1</v>
@@ -2145,13 +2151,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>1</v>
@@ -2159,13 +2165,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>1</v>
@@ -2173,13 +2179,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>1</v>
@@ -2187,13 +2193,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>185</v>
+        <v>60</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>1</v>
@@ -2201,13 +2207,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
@@ -2215,13 +2221,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>1</v>
@@ -2229,13 +2235,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>1</v>
@@ -2243,13 +2249,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1</v>
@@ -2257,13 +2263,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1</v>
@@ -2271,13 +2277,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>1</v>
@@ -2285,13 +2291,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -2299,13 +2305,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
@@ -2313,13 +2319,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>185</v>
+        <v>123</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>1</v>
@@ -2327,13 +2333,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>73</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>185</v>
+        <v>68</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>1</v>
@@ -2341,13 +2347,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>1</v>
@@ -2355,13 +2361,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>1</v>
@@ -2369,13 +2375,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>1</v>
@@ -2383,13 +2389,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>185</v>
+        <v>72</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>1</v>
@@ -2397,13 +2403,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
@@ -2411,13 +2417,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>1</v>
@@ -2425,13 +2431,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>1</v>
@@ -2439,13 +2445,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>1</v>
@@ -2453,13 +2459,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>1</v>
@@ -2467,13 +2473,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>83</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>185</v>
+        <v>78</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>1</v>
@@ -2481,13 +2487,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>1</v>
@@ -2495,13 +2501,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
@@ -2509,13 +2515,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>1</v>
@@ -2523,13 +2529,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>1</v>
@@ -2537,13 +2543,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>1</v>
@@ -2551,13 +2557,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>1</v>
@@ -2565,13 +2571,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>1</v>
@@ -2579,27 +2585,27 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>1</v>
@@ -2607,13 +2613,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>1</v>
@@ -2621,13 +2627,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>1</v>
@@ -2635,13 +2641,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>1</v>
@@ -2649,13 +2655,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>1</v>
@@ -2663,13 +2669,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>1</v>
@@ -2677,13 +2683,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>1</v>
@@ -2691,13 +2697,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1</v>
@@ -2705,13 +2711,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>1</v>
@@ -2719,13 +2725,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>1</v>
@@ -2733,13 +2739,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>1</v>
@@ -2747,13 +2753,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>1</v>
@@ -2761,13 +2767,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>1</v>
@@ -2775,13 +2781,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>1</v>
@@ -2789,13 +2795,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>87</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>185</v>
+        <v>86</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>1</v>
@@ -2803,13 +2809,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>1</v>
@@ -2817,13 +2823,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>89</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>185</v>
+        <v>88</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>1</v>
@@ -2831,13 +2837,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>90</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>185</v>
+        <v>125</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>1</v>
@@ -2845,13 +2851,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>1</v>
@@ -2859,13 +2865,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>1</v>
@@ -2873,13 +2879,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>1</v>
@@ -2887,13 +2893,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>1</v>
@@ -2901,13 +2907,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>1</v>
@@ -2915,13 +2921,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>95</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>185</v>
+        <v>94</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>1</v>
@@ -2929,41 +2935,41 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>96</v>
-      </c>
-      <c r="B140" s="1" t="s">
         <v>136</v>
       </c>
+      <c r="B140" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="C140" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>97</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1</v>
+        <v>138</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>98</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>136</v>
+        <v>95</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>1</v>
@@ -2971,41 +2977,41 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>136</v>
+        <v>96</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>1</v>
@@ -3013,13 +3019,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>100</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>1</v>
@@ -3027,27 +3033,27 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>101</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>102</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>136</v>
+        <v>100</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>1</v>
@@ -3055,111 +3061,111 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>103</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>1</v>
@@ -3167,27 +3173,27 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>1</v>
@@ -3195,13 +3201,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>109</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>185</v>
+        <v>129</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>1</v>
@@ -3209,13 +3215,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>110</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>185</v>
+        <v>108</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>1</v>
@@ -3223,13 +3229,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>111</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>185</v>
+        <v>109</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>1</v>
@@ -3237,27 +3243,27 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>1</v>
@@ -3265,13 +3271,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>1</v>
@@ -3279,27 +3285,27 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>115</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>1</v>
@@ -3307,13 +3313,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>1</v>
@@ -3321,13 +3327,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>1</v>
@@ -3335,13 +3341,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>1</v>
@@ -3349,13 +3355,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>1</v>
@@ -3363,10 +3369,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>1</v>
@@ -3377,13 +3383,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>1</v>
@@ -3391,13 +3397,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>1</v>
@@ -3405,13 +3411,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>1</v>
@@ -3419,57 +3425,15 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>150</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>119</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>120</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D178" s="1" t="s">
         <v>1</v>
       </c>
     </row>
